--- a/data_quarter/zb/工业/主要工业产品的销售与库存/合成氨(无水氨).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/合成氨(无水氨).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>合成氨(无水氨)销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>合成氨(无水氨)产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>合成氨(无水氨)销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第一季度</t>
+          <t>2000年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,45 +481,63 @@
       <c r="E2" t="n">
         <v>227.6</v>
       </c>
+      <c r="F2" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>227.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第三季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>91.40000000000001</v>
+        <v>47.2</v>
       </c>
       <c r="E3" t="n">
-        <v>764.2</v>
+        <v>494.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>47.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>494.6</v>
+        <v>764.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>269.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,11 +550,17 @@
       <c r="E5" t="n">
         <v>1030.8</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G5" t="n">
+        <v>266.5999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年第一季度</t>
+          <t>2001年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -539,45 +573,63 @@
       <c r="E6" t="n">
         <v>255.1</v>
       </c>
+      <c r="F6" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>255.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年第三季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>67.5</v>
+        <v>50.8</v>
       </c>
       <c r="E7" t="n">
-        <v>780.9</v>
+        <v>542.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>287.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>50.8</v>
+        <v>67.5</v>
       </c>
       <c r="E8" t="n">
-        <v>542.5</v>
+        <v>780.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G8" t="n">
+        <v>238.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,11 +642,17 @@
       <c r="E9" t="n">
         <v>1068.7</v>
       </c>
+      <c r="F9" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>287.8000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -607,45 +665,63 @@
       <c r="E10" t="n">
         <v>319.3</v>
       </c>
+      <c r="F10" t="n">
+        <v>4.900000000000006</v>
+      </c>
+      <c r="G10" t="n">
+        <v>319.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>56.3</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="n">
-        <v>1097.9</v>
+        <v>668.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>349.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>-13</v>
+        <v>56.3</v>
       </c>
       <c r="E12" t="n">
-        <v>668.7</v>
+        <v>1097.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>429.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -658,11 +734,17 @@
       <c r="E13" t="n">
         <v>1413.8</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G13" t="n">
+        <v>315.8999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -675,45 +757,63 @@
       <c r="E14" t="n">
         <v>284.7</v>
       </c>
+      <c r="F14" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>284.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>16.3</v>
+        <v>22.1</v>
       </c>
       <c r="E15" t="n">
-        <v>1048.6</v>
+        <v>642.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>357.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>22.1</v>
+        <v>16.3</v>
       </c>
       <c r="E16" t="n">
-        <v>642.1</v>
+        <v>1048.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G16" t="n">
+        <v>406.4999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -726,11 +826,17 @@
       <c r="E17" t="n">
         <v>1369.5</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G17" t="n">
+        <v>320.9000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -743,45 +849,63 @@
       <c r="E18" t="n">
         <v>276.3</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G18" t="n">
+        <v>276.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>43.7</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
-        <v>827.8</v>
+        <v>554.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>278.4999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>18.8</v>
+        <v>43.7</v>
       </c>
       <c r="E20" t="n">
-        <v>554.8</v>
+        <v>827.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -794,11 +918,17 @@
       <c r="E21" t="n">
         <v>1166.9</v>
       </c>
+      <c r="F21" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="G21" t="n">
+        <v>339.1000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -811,45 +941,63 @@
       <c r="E22" t="n">
         <v>279.1</v>
       </c>
+      <c r="F22" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>279.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>8.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="E23" t="n">
-        <v>848</v>
+        <v>566.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>287.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>566.4</v>
+        <v>848</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>281.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -862,11 +1010,17 @@
       <c r="E25" t="n">
         <v>1133.2</v>
       </c>
+      <c r="F25" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>285.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -879,11 +1033,17 @@
       <c r="E26" t="n">
         <v>285.2</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="G26" t="n">
+        <v>285.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -891,16 +1051,22 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="E27" t="n">
-        <v>907.7</v>
+        <v>600.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>315.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -908,16 +1074,22 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>600.4</v>
+        <v>907.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>307.3000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -930,11 +1102,17 @@
       <c r="E29" t="n">
         <v>1249</v>
       </c>
+      <c r="F29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>341.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -947,11 +1125,17 @@
       <c r="E30" t="n">
         <v>308.5</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -959,16 +1143,22 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>-3.5</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>975.2</v>
+        <v>663.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>355.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -976,16 +1166,22 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>-3.5</v>
       </c>
       <c r="E32" t="n">
-        <v>663.6</v>
+        <v>975.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>311.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -998,11 +1194,17 @@
       <c r="E33" t="n">
         <v>1411.1</v>
       </c>
+      <c r="F33" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>435.8999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1015,45 +1217,63 @@
       <c r="E34" t="n">
         <v>340.9</v>
       </c>
+      <c r="F34" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>340.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>-40.5</v>
+        <v>-28.5</v>
       </c>
       <c r="E35" t="n">
-        <v>1004.4</v>
+        <v>708.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>99</v>
+      </c>
+      <c r="G35" t="n">
+        <v>367.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-28.5</v>
+        <v>-40.5</v>
       </c>
       <c r="E36" t="n">
-        <v>708.6</v>
+        <v>1004.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G36" t="n">
+        <v>295.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1066,11 +1286,17 @@
       <c r="E37" t="n">
         <v>1343.6</v>
       </c>
+      <c r="F37" t="n">
+        <v>3.200000000000003</v>
+      </c>
+      <c r="G37" t="n">
+        <v>339.1999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1083,45 +1309,63 @@
       <c r="E38" t="n">
         <v>288</v>
       </c>
+      <c r="F38" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
       <c r="E39" t="n">
-        <v>982</v>
+        <v>641.1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>353.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>21.6</v>
+        <v>22.4</v>
       </c>
       <c r="E40" t="n">
-        <v>641.1</v>
+        <v>982</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G40" t="n">
+        <v>340.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1134,11 +1378,17 @@
       <c r="E41" t="n">
         <v>1360</v>
       </c>
+      <c r="F41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1151,45 +1401,63 @@
       <c r="E42" t="n">
         <v>396.5</v>
       </c>
+      <c r="F42" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>396.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>49.6</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>1187.1</v>
+        <v>804.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>408.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>69.90000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="E44" t="n">
-        <v>804.7</v>
+        <v>1187.1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="G44" t="n">
+        <v>382.3999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1202,11 +1470,17 @@
       <c r="E45" t="n">
         <v>1563.1</v>
       </c>
+      <c r="F45" t="n">
+        <v>99</v>
+      </c>
+      <c r="G45" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1219,45 +1493,63 @@
       <c r="E46" t="n">
         <v>365.5</v>
       </c>
+      <c r="F46" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>365.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>30.4</v>
+        <v>152.7</v>
       </c>
       <c r="E47" t="n">
-        <v>1200.6</v>
+        <v>774.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>409.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>152.7</v>
+        <v>30.4</v>
       </c>
       <c r="E48" t="n">
-        <v>774.6</v>
+        <v>1200.6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="G48" t="n">
+        <v>425.9999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1270,11 +1562,17 @@
       <c r="E49" t="n">
         <v>1676.5</v>
       </c>
+      <c r="F49" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>475.9000000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1287,45 +1585,63 @@
       <c r="E50" t="n">
         <v>378.4</v>
       </c>
+      <c r="F50" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G50" t="n">
+        <v>378.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>23.5</v>
+        <v>18.8</v>
       </c>
       <c r="E51" t="n">
-        <v>1131.6</v>
+        <v>714.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>335.8000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>18.8</v>
+        <v>23.5</v>
       </c>
       <c r="E52" t="n">
-        <v>714.2</v>
+        <v>1131.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="G52" t="n">
+        <v>417.3999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1338,11 +1654,17 @@
       <c r="E53" t="n">
         <v>1490.7</v>
       </c>
+      <c r="F53" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>359.1000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1357,49 +1679,67 @@
       <c r="E54" t="n">
         <v>339.75675</v>
       </c>
+      <c r="F54" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>339.75675</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>95.7</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D55" t="n">
-        <v>14.5</v>
+        <v>5.5</v>
       </c>
       <c r="E55" t="n">
-        <v>1058.18588</v>
+        <v>714.03208</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G55" t="n">
+        <v>374.2753299999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>95.7</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D56" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="E56" t="n">
-        <v>714.03208</v>
+        <v>1058.18588</v>
+      </c>
+      <c r="F56" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>344.1538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1414,11 +1754,17 @@
       <c r="E57" t="n">
         <v>1424.01202</v>
       </c>
+      <c r="F57" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>365.8261399999999</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1433,49 +1779,67 @@
       <c r="E58" t="n">
         <v>386.81271</v>
       </c>
+      <c r="F58" t="n">
+        <v>4.299999999999997</v>
+      </c>
+      <c r="G58" t="n">
+        <v>386.81271</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>-5.9</v>
+        <v>22.1</v>
       </c>
       <c r="E59" t="n">
-        <v>1114.95625</v>
+        <v>743.76235</v>
+      </c>
+      <c r="F59" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>356.94964</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="D60" t="n">
-        <v>22.1</v>
+        <v>-5.9</v>
       </c>
       <c r="E60" t="n">
-        <v>743.76235</v>
+        <v>1114.95625</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="G60" t="n">
+        <v>371.1939</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1490,11 +1854,17 @@
       <c r="E61" t="n">
         <v>1446.72079</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G61" t="n">
+        <v>331.7645400000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1509,49 +1879,67 @@
       <c r="E62" t="n">
         <v>314.03283</v>
       </c>
+      <c r="F62" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="G62" t="n">
+        <v>314.03283</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>100</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D63" t="n">
-        <v>25.2</v>
+        <v>-1.5</v>
       </c>
       <c r="E63" t="n">
-        <v>1056.34763</v>
+        <v>690.83836</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.299999999999997</v>
+      </c>
+      <c r="G63" t="n">
+        <v>376.80553</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.5</v>
+        <v>25.2</v>
       </c>
       <c r="E64" t="n">
-        <v>690.83836</v>
+        <v>1056.34763</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" t="n">
+        <v>365.50927</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1566,11 +1954,17 @@
       <c r="E65" t="n">
         <v>1434.80633</v>
       </c>
+      <c r="F65" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G65" t="n">
+        <v>378.4586999999999</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1585,49 +1979,67 @@
       <c r="E66" t="n">
         <v>344.11455</v>
       </c>
+      <c r="F66" t="n">
+        <v>100</v>
+      </c>
+      <c r="G66" t="n">
+        <v>344.11455</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.1</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D67" t="n">
-        <v>-9.6</v>
+        <v>108.5</v>
       </c>
       <c r="E67" t="n">
-        <v>1097.97821</v>
+        <v>707.2113900000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>99</v>
+      </c>
+      <c r="G67" t="n">
+        <v>363.09684</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99</v>
+        <v>100.1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>108.5</v>
+        <v>-9.6</v>
       </c>
       <c r="E68" t="n">
-        <v>707.2113900000001</v>
+        <v>1097.97821</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="G68" t="n">
+        <v>390.7668199999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1641,6 +2053,12 @@
       </c>
       <c r="E69" t="n">
         <v>1389.60628</v>
+      </c>
+      <c r="F69" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>291.62807</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/合成氨(无水氨).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/合成氨(无水氨).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>合成氨(无水氨)销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>合成氨(无水氨)产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>合成氨(无水氨)销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,57 +471,39 @@
       <c r="E2" t="n">
         <v>227.6</v>
       </c>
-      <c r="F2" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>227.6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年B</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>47.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>494.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>267</v>
+        <v>764.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年C</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>91.40000000000001</v>
+        <v>47.2</v>
       </c>
       <c r="E4" t="n">
-        <v>764.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>269.6</v>
+        <v>494.6</v>
       </c>
     </row>
     <row r="5">
@@ -550,12 +522,6 @@
       <c r="E5" t="n">
         <v>1030.8</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G5" t="n">
-        <v>266.5999999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -573,57 +539,39 @@
       <c r="E6" t="n">
         <v>255.1</v>
       </c>
-      <c r="F6" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>255.1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年B</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>50.8</v>
+        <v>67.5</v>
       </c>
       <c r="E7" t="n">
-        <v>542.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>287.4</v>
+        <v>780.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年C</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>67.5</v>
+        <v>50.8</v>
       </c>
       <c r="E8" t="n">
-        <v>780.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G8" t="n">
-        <v>238.4</v>
+        <v>542.5</v>
       </c>
     </row>
     <row r="9">
@@ -642,12 +590,6 @@
       <c r="E9" t="n">
         <v>1068.7</v>
       </c>
-      <c r="F9" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>287.8000000000001</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -665,57 +607,39 @@
       <c r="E10" t="n">
         <v>319.3</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.900000000000006</v>
-      </c>
-      <c r="G10" t="n">
-        <v>319.3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>-13</v>
+        <v>56.3</v>
       </c>
       <c r="E11" t="n">
-        <v>668.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>349.4</v>
+        <v>1097.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>56.3</v>
+        <v>-13</v>
       </c>
       <c r="E12" t="n">
-        <v>1097.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>429.2</v>
+        <v>668.7</v>
       </c>
     </row>
     <row r="13">
@@ -734,12 +658,6 @@
       <c r="E13" t="n">
         <v>1413.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G13" t="n">
-        <v>315.8999999999999</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -757,57 +675,39 @@
       <c r="E14" t="n">
         <v>284.7</v>
       </c>
-      <c r="F14" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>284.7</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>22.1</v>
+        <v>16.3</v>
       </c>
       <c r="E15" t="n">
-        <v>642.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>357.4</v>
+        <v>1048.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>16.3</v>
+        <v>22.1</v>
       </c>
       <c r="E16" t="n">
-        <v>1048.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G16" t="n">
-        <v>406.4999999999999</v>
+        <v>642.1</v>
       </c>
     </row>
     <row r="17">
@@ -826,12 +726,6 @@
       <c r="E17" t="n">
         <v>1369.5</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G17" t="n">
-        <v>320.9000000000001</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -849,57 +743,39 @@
       <c r="E18" t="n">
         <v>276.3</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G18" t="n">
-        <v>276.3</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>43.7</v>
       </c>
       <c r="E19" t="n">
-        <v>554.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>278.4999999999999</v>
+        <v>827.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>43.7</v>
+        <v>18.8</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>273</v>
+        <v>554.8</v>
       </c>
     </row>
     <row r="21">
@@ -918,12 +794,6 @@
       <c r="E21" t="n">
         <v>1166.9</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="G21" t="n">
-        <v>339.1000000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -941,57 +811,39 @@
       <c r="E22" t="n">
         <v>279.1</v>
       </c>
-      <c r="F22" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>279.1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>566.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>287.3</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>8.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="E24" t="n">
-        <v>848</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>281.6</v>
+        <v>566.4</v>
       </c>
     </row>
     <row r="25">
@@ -1010,12 +862,6 @@
       <c r="E25" t="n">
         <v>1133.2</v>
       </c>
-      <c r="F25" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>285.2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1033,17 +879,11 @@
       <c r="E26" t="n">
         <v>285.2</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="G26" t="n">
-        <v>285.2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1051,22 +891,16 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>600.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>315.2</v>
+        <v>907.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1074,16 +908,10 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="E28" t="n">
-        <v>907.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G28" t="n">
-        <v>307.3000000000001</v>
+        <v>600.4</v>
       </c>
     </row>
     <row r="29">
@@ -1102,12 +930,6 @@
       <c r="E29" t="n">
         <v>1249</v>
       </c>
-      <c r="F29" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>341.3</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1125,17 +947,11 @@
       <c r="E30" t="n">
         <v>308.5</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G30" t="n">
-        <v>308.5</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1143,22 +959,16 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>-3.5</v>
       </c>
       <c r="E31" t="n">
-        <v>663.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G31" t="n">
-        <v>355.1</v>
+        <v>975.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1166,16 +976,10 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>-3.5</v>
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>975.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>311.6</v>
+        <v>663.6</v>
       </c>
     </row>
     <row r="33">
@@ -1194,12 +998,6 @@
       <c r="E33" t="n">
         <v>1411.1</v>
       </c>
-      <c r="F33" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G33" t="n">
-        <v>435.8999999999999</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1217,57 +1015,39 @@
       <c r="E34" t="n">
         <v>340.9</v>
       </c>
-      <c r="F34" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>340.9</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>-28.5</v>
+        <v>-40.5</v>
       </c>
       <c r="E35" t="n">
-        <v>708.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>99</v>
-      </c>
-      <c r="G35" t="n">
-        <v>367.7</v>
+        <v>1004.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-40.5</v>
+        <v>-28.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1004.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G36" t="n">
-        <v>295.8</v>
+        <v>708.6</v>
       </c>
     </row>
     <row r="37">
@@ -1286,12 +1066,6 @@
       <c r="E37" t="n">
         <v>1343.6</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="G37" t="n">
-        <v>339.1999999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1309,57 +1083,39 @@
       <c r="E38" t="n">
         <v>288</v>
       </c>
-      <c r="F38" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>288</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>21.6</v>
+        <v>22.4</v>
       </c>
       <c r="E39" t="n">
-        <v>641.1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>353.1</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
       <c r="E40" t="n">
-        <v>982</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G40" t="n">
-        <v>340.9</v>
+        <v>641.1</v>
       </c>
     </row>
     <row r="41">
@@ -1378,12 +1134,6 @@
       <c r="E41" t="n">
         <v>1360</v>
       </c>
-      <c r="F41" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G41" t="n">
-        <v>378</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1401,57 +1151,39 @@
       <c r="E42" t="n">
         <v>396.5</v>
       </c>
-      <c r="F42" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G42" t="n">
-        <v>396.5</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>69.90000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="E43" t="n">
-        <v>804.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>408.2</v>
+        <v>1187.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>49.6</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>1187.1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="G44" t="n">
-        <v>382.3999999999999</v>
+        <v>804.7</v>
       </c>
     </row>
     <row r="45">
@@ -1470,12 +1202,6 @@
       <c r="E45" t="n">
         <v>1563.1</v>
       </c>
-      <c r="F45" t="n">
-        <v>99</v>
-      </c>
-      <c r="G45" t="n">
-        <v>376</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1493,57 +1219,39 @@
       <c r="E46" t="n">
         <v>365.5</v>
       </c>
-      <c r="F46" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>365.5</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>152.7</v>
+        <v>30.4</v>
       </c>
       <c r="E47" t="n">
-        <v>774.6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>409.1</v>
+        <v>1200.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>30.4</v>
+        <v>152.7</v>
       </c>
       <c r="E48" t="n">
-        <v>1200.6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="G48" t="n">
-        <v>425.9999999999999</v>
+        <v>774.6</v>
       </c>
     </row>
     <row r="49">
@@ -1562,12 +1270,6 @@
       <c r="E49" t="n">
         <v>1676.5</v>
       </c>
-      <c r="F49" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>475.9000000000001</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1585,57 +1287,39 @@
       <c r="E50" t="n">
         <v>378.4</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G50" t="n">
-        <v>378.4</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>18.8</v>
+        <v>23.5</v>
       </c>
       <c r="E51" t="n">
-        <v>714.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>335.8000000000001</v>
+        <v>1131.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>23.5</v>
+        <v>18.8</v>
       </c>
       <c r="E52" t="n">
-        <v>1131.6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="G52" t="n">
-        <v>417.3999999999999</v>
+        <v>714.2</v>
       </c>
     </row>
     <row r="53">
@@ -1654,12 +1338,6 @@
       <c r="E53" t="n">
         <v>1490.7</v>
       </c>
-      <c r="F53" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G53" t="n">
-        <v>359.1000000000001</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1679,61 +1357,43 @@
       <c r="E54" t="n">
         <v>339.75675</v>
       </c>
-      <c r="F54" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="G54" t="n">
-        <v>339.75675</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>95.7</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D55" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="E55" t="n">
-        <v>714.03208</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G55" t="n">
-        <v>374.2753299999999</v>
+        <v>1058.18588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>95.7</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D56" t="n">
-        <v>14.5</v>
+        <v>5.5</v>
       </c>
       <c r="E56" t="n">
-        <v>1058.18588</v>
-      </c>
-      <c r="F56" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="G56" t="n">
-        <v>344.1538</v>
+        <v>714.03208</v>
       </c>
     </row>
     <row r="57">
@@ -1754,12 +1414,6 @@
       <c r="E57" t="n">
         <v>1424.01202</v>
       </c>
-      <c r="F57" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="G57" t="n">
-        <v>365.8261399999999</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1779,61 +1433,43 @@
       <c r="E58" t="n">
         <v>386.81271</v>
       </c>
-      <c r="F58" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="G58" t="n">
-        <v>386.81271</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="D59" t="n">
-        <v>22.1</v>
+        <v>-5.9</v>
       </c>
       <c r="E59" t="n">
-        <v>743.76235</v>
-      </c>
-      <c r="F59" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G59" t="n">
-        <v>356.94964</v>
+        <v>1114.95625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.9</v>
+        <v>22.1</v>
       </c>
       <c r="E60" t="n">
-        <v>1114.95625</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="G60" t="n">
-        <v>371.1939</v>
+        <v>743.76235</v>
       </c>
     </row>
     <row r="61">
@@ -1854,12 +1490,6 @@
       <c r="E61" t="n">
         <v>1446.72079</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G61" t="n">
-        <v>331.7645400000001</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1879,61 +1509,43 @@
       <c r="E62" t="n">
         <v>314.03283</v>
       </c>
-      <c r="F62" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="G62" t="n">
-        <v>314.03283</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>100</v>
       </c>
       <c r="C63" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.5</v>
+        <v>25.2</v>
       </c>
       <c r="E63" t="n">
-        <v>690.83836</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="G63" t="n">
-        <v>376.80553</v>
+        <v>1056.34763</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D64" t="n">
-        <v>25.2</v>
+        <v>-1.5</v>
       </c>
       <c r="E64" t="n">
-        <v>1056.34763</v>
-      </c>
-      <c r="F64" t="n">
-        <v>100</v>
-      </c>
-      <c r="G64" t="n">
-        <v>365.50927</v>
+        <v>690.83836</v>
       </c>
     </row>
     <row r="65">
@@ -1954,12 +1566,6 @@
       <c r="E65" t="n">
         <v>1434.80633</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G65" t="n">
-        <v>378.4586999999999</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1979,61 +1585,43 @@
       <c r="E66" t="n">
         <v>344.11455</v>
       </c>
-      <c r="F66" t="n">
-        <v>100</v>
-      </c>
-      <c r="G66" t="n">
-        <v>344.11455</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99</v>
+        <v>100.1</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>108.5</v>
+        <v>-9.6</v>
       </c>
       <c r="E67" t="n">
-        <v>707.2113900000001</v>
-      </c>
-      <c r="F67" t="n">
-        <v>99</v>
-      </c>
-      <c r="G67" t="n">
-        <v>363.09684</v>
+        <v>1097.97821</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.1</v>
+        <v>99</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>-9.6</v>
+        <v>108.5</v>
       </c>
       <c r="E68" t="n">
-        <v>1097.97821</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="G68" t="n">
-        <v>390.7668199999999</v>
+        <v>707.2113900000001</v>
       </c>
     </row>
     <row r="69">
@@ -2053,12 +1641,6 @@
       </c>
       <c r="E69" t="n">
         <v>1389.60628</v>
-      </c>
-      <c r="F69" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>291.62807</v>
       </c>
     </row>
   </sheetData>
